--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>215.566378598967</v>
+        <v>190.6931071188207</v>
       </c>
       <c r="R2">
-        <v>862.2655143958679</v>
+        <v>762.7724284752829</v>
       </c>
       <c r="S2">
-        <v>0.07204917716499754</v>
+        <v>0.113821970391876</v>
       </c>
       <c r="T2">
-        <v>0.04460137490042732</v>
+        <v>0.08095378259969181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>110.236110615702</v>
+        <v>103.358661428697</v>
       </c>
       <c r="R3">
-        <v>661.4166636942119</v>
+        <v>620.151968572182</v>
       </c>
       <c r="S3">
-        <v>0.03684443332652915</v>
+        <v>0.06169329703957596</v>
       </c>
       <c r="T3">
-        <v>0.03421230710297415</v>
+        <v>0.06581733393656632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>92.84139032784199</v>
+        <v>87.59695156714348</v>
       </c>
       <c r="R4">
-        <v>557.048341967052</v>
+        <v>525.5817094028608</v>
       </c>
       <c r="S4">
-        <v>0.03103056155347702</v>
+        <v>0.05228535933121807</v>
       </c>
       <c r="T4">
-        <v>0.02881377200286301</v>
+        <v>0.05578049999319335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>144.2377542457125</v>
+        <v>111.0272781938657</v>
       </c>
       <c r="R5">
-        <v>576.9510169828499</v>
+        <v>444.109112775463</v>
       </c>
       <c r="S5">
-        <v>0.04820886994100348</v>
+        <v>0.06627058398811682</v>
       </c>
       <c r="T5">
-        <v>0.02984325382149159</v>
+        <v>0.04713373376385989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>145.856715728926</v>
+        <v>73.20264613050466</v>
       </c>
       <c r="R6">
-        <v>875.1402943735561</v>
+        <v>439.215876783028</v>
       </c>
       <c r="S6">
-        <v>0.04874997864026109</v>
+        <v>0.043693605638727</v>
       </c>
       <c r="T6">
-        <v>0.04526733321484248</v>
+        <v>0.04661440985026171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>98.30318917744299</v>
+        <v>73.4362158749195</v>
       </c>
       <c r="R7">
-        <v>589.8191350646579</v>
+        <v>440.6172952495169</v>
       </c>
       <c r="S7">
-        <v>0.03285606938782521</v>
+        <v>0.04383302005666219</v>
       </c>
       <c r="T7">
-        <v>0.03050886754400235</v>
+        <v>0.04676314376044527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>99.98025495394201</v>
+        <v>94.32899660915702</v>
       </c>
       <c r="R8">
-        <v>599.881529723652</v>
+        <v>565.973979654942</v>
       </c>
       <c r="S8">
-        <v>0.03341659839997289</v>
+        <v>0.05630362010123838</v>
       </c>
       <c r="T8">
-        <v>0.0310293529734774</v>
+        <v>0.06006737107377403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
         <v>51.12779885305201</v>
       </c>
       <c r="R9">
-        <v>460.150189677468</v>
+        <v>460.1501896774681</v>
       </c>
       <c r="S9">
-        <v>0.01708854535462125</v>
+        <v>0.03051744709171774</v>
       </c>
       <c r="T9">
-        <v>0.02380163740479269</v>
+        <v>0.04883618891786385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>43.06008170469201</v>
+        <v>43.331049937746</v>
       </c>
       <c r="R10">
-        <v>387.540735342228</v>
+        <v>389.979449439714</v>
       </c>
       <c r="S10">
-        <v>0.0143920562921007</v>
+        <v>0.02586367990737013</v>
       </c>
       <c r="T10">
-        <v>0.02004585517756249</v>
+        <v>0.041388899742216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>66.89785084852501</v>
+        <v>54.92118675137701</v>
       </c>
       <c r="R11">
-        <v>401.38710509115</v>
+        <v>329.527120508262</v>
       </c>
       <c r="S11">
-        <v>0.02235940103029618</v>
+        <v>0.03278166571803135</v>
       </c>
       <c r="T11">
-        <v>0.02076206975169433</v>
+        <v>0.03497303504749415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>67.64872945447603</v>
+        <v>36.21070663200801</v>
       </c>
       <c r="R12">
-        <v>608.8385650902841</v>
+        <v>325.896359688072</v>
       </c>
       <c r="S12">
-        <v>0.02261036867219463</v>
+        <v>0.02161364949373431</v>
       </c>
       <c r="T12">
-        <v>0.03149266280752944</v>
+        <v>0.03458769885659817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>45.59327841671801</v>
+        <v>36.326245153362</v>
       </c>
       <c r="R13">
-        <v>410.339505750462</v>
+        <v>326.936206380258</v>
       </c>
       <c r="S13">
-        <v>0.01523873164047724</v>
+        <v>0.02168261277382016</v>
       </c>
       <c r="T13">
-        <v>0.02122513985179518</v>
+        <v>0.03469805880133883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>0.6869182970723332</v>
+        <v>4.5628137882325</v>
       </c>
       <c r="R14">
-        <v>4.121509782434</v>
+        <v>27.376882729395</v>
       </c>
       <c r="S14">
-        <v>0.0002295900613319489</v>
+        <v>0.00272347786322574</v>
       </c>
       <c r="T14">
-        <v>0.0002131883971851889</v>
+        <v>0.002905535294665565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>0.351275564734</v>
+        <v>2.47311679287</v>
       </c>
       <c r="R15">
-        <v>3.161480082606</v>
+        <v>22.25805113583</v>
       </c>
       <c r="S15">
-        <v>0.0001174075269146624</v>
+        <v>0.001476167810293746</v>
       </c>
       <c r="T15">
-        <v>0.0001635300914282046</v>
+        <v>0.00236226869964951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>0.2958459948917778</v>
+        <v>2.095978110885</v>
       </c>
       <c r="R16">
-        <v>2.662613954026</v>
+        <v>18.863802997965</v>
       </c>
       <c r="S16">
-        <v>9.888119213231892E-05</v>
+        <v>0.001251059160363467</v>
       </c>
       <c r="T16">
-        <v>0.0001377258410500476</v>
+        <v>0.002002033830657996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>0.4596243308624999</v>
+        <v>2.6566078001825</v>
       </c>
       <c r="R17">
-        <v>2.757745985175</v>
+        <v>15.939646801095</v>
       </c>
       <c r="S17">
-        <v>0.0001536211493595801</v>
+        <v>0.001585690950993768</v>
       </c>
       <c r="T17">
-        <v>0.0001426466216164471</v>
+        <v>0.001691690278358732</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>0.464783272030889</v>
+        <v>1.751558030313333</v>
       </c>
       <c r="R18">
-        <v>4.183049448278001</v>
+        <v>15.76402227282</v>
       </c>
       <c r="S18">
-        <v>0.0001553454324720063</v>
+        <v>0.00104547977259478</v>
       </c>
       <c r="T18">
-        <v>0.000216371585729472</v>
+        <v>0.001673051075694358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>0.3132504231198889</v>
+        <v>1.757146775845</v>
       </c>
       <c r="R19">
-        <v>2.819253808079</v>
+        <v>15.814320982605</v>
       </c>
       <c r="S19">
-        <v>0.000104698308609446</v>
+        <v>0.001048815614346191</v>
       </c>
       <c r="T19">
-        <v>0.0001458281630591342</v>
+        <v>0.001678389326875145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N20">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O20">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P20">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q20">
-        <v>160.1785444880225</v>
+        <v>196.7657588587053</v>
       </c>
       <c r="R20">
-        <v>640.7141779520899</v>
+        <v>787.063035434821</v>
       </c>
       <c r="S20">
-        <v>0.05353679179868301</v>
+        <v>0.1174466487925831</v>
       </c>
       <c r="T20">
-        <v>0.03314145443342018</v>
+        <v>0.08353176843348462</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P21">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q21">
-        <v>81.91193758138499</v>
+        <v>106.650134123439</v>
       </c>
       <c r="R21">
-        <v>491.4716254883099</v>
+        <v>639.9008047406342</v>
       </c>
       <c r="S21">
-        <v>0.02737758894075381</v>
+        <v>0.06365792970651946</v>
       </c>
       <c r="T21">
-        <v>0.02542176377850926</v>
+        <v>0.06791329720174824</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N22">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O22">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P22">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q22">
-        <v>68.98663357250166</v>
+        <v>90.38649015288449</v>
       </c>
       <c r="R22">
-        <v>413.91980143501</v>
+        <v>542.3189409173069</v>
       </c>
       <c r="S22">
-        <v>0.02305753901228157</v>
+        <v>0.05395039475441964</v>
       </c>
       <c r="T22">
-        <v>0.02141033351594489</v>
+        <v>0.05755683871593611</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N23">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O23">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P23">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q23">
-        <v>107.1771659637187</v>
+        <v>114.5629591856203</v>
       </c>
       <c r="R23">
-        <v>428.7086638548749</v>
+        <v>458.251836742481</v>
       </c>
       <c r="S23">
-        <v>0.03582203620411574</v>
+        <v>0.06838098107188681</v>
       </c>
       <c r="T23">
-        <v>0.02217529927895744</v>
+        <v>0.04863471486733527</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N24">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O24">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P24">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q24">
-        <v>108.3801499153384</v>
+        <v>75.53379581443934</v>
       </c>
       <c r="R24">
-        <v>650.28089949203</v>
+        <v>453.202774886636</v>
       </c>
       <c r="S24">
-        <v>0.03622411191007793</v>
+        <v>0.04508503532547762</v>
       </c>
       <c r="T24">
-        <v>0.03363630077349423</v>
+        <v>0.04809885300270612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N25">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O25">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P25">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q25">
-        <v>73.04507253548583</v>
+        <v>75.7748036237965</v>
       </c>
       <c r="R25">
-        <v>438.2704352129149</v>
+        <v>454.648821742779</v>
       </c>
       <c r="S25">
-        <v>0.0244139990955182</v>
+        <v>0.04522888941729735</v>
       </c>
       <c r="T25">
-        <v>0.02266988956690477</v>
+        <v>0.0482523233674585</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N26">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O26">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P26">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q26">
-        <v>303.6707898003706</v>
+        <v>2.723756821885333</v>
       </c>
       <c r="R26">
-        <v>1822.024738802224</v>
+        <v>16.342540931312</v>
       </c>
       <c r="S26">
-        <v>0.1014964888140793</v>
+        <v>0.001625771235360528</v>
       </c>
       <c r="T26">
-        <v>0.09424569009942141</v>
+        <v>0.001734449825781645</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>24.489942</v>
       </c>
       <c r="N27">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O27">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P27">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q27">
-        <v>155.290852835024</v>
+        <v>1.476319010272</v>
       </c>
       <c r="R27">
-        <v>1397.617675515216</v>
+        <v>13.286871092448</v>
       </c>
       <c r="S27">
-        <v>0.05190316894838729</v>
+        <v>0.0008811935639154446</v>
       </c>
       <c r="T27">
-        <v>0.0722928945578815</v>
+        <v>0.001410148602248567</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H28">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I28">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J28">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N28">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O28">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P28">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q28">
-        <v>130.7867140982596</v>
+        <v>1.251187303056</v>
       </c>
       <c r="R28">
-        <v>1177.080426884336</v>
+        <v>11.260685727504</v>
       </c>
       <c r="S28">
-        <v>0.0437131021828955</v>
+        <v>0.0007468156889089547</v>
       </c>
       <c r="T28">
-        <v>0.06088542859586138</v>
+        <v>0.001195107571113985</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N29">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O29">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P29">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q29">
-        <v>203.1893518623</v>
+        <v>1.585853369138667</v>
       </c>
       <c r="R29">
-        <v>1219.1361111738</v>
+        <v>9.515120214832001</v>
       </c>
       <c r="S29">
-        <v>0.06791237903385193</v>
+        <v>0.0009465730458494528</v>
       </c>
       <c r="T29">
-        <v>0.06306079257641277</v>
+        <v>0.001009848998896272</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N30">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O30">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P30">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q30">
-        <v>205.4700011706898</v>
+        <v>1.045586858332445</v>
       </c>
       <c r="R30">
-        <v>1849.230010536208</v>
+        <v>9.410281724992</v>
       </c>
       <c r="S30">
-        <v>0.06867464496390729</v>
+        <v>0.0006240957433091414</v>
       </c>
       <c r="T30">
-        <v>0.0956529045868587</v>
+        <v>0.0009987223876059921</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N31">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O31">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P31">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q31">
-        <v>138.4808117639938</v>
+        <v>1.048923041765333</v>
       </c>
       <c r="R31">
-        <v>1246.327305875944</v>
+        <v>9.440307375887999</v>
       </c>
       <c r="S31">
-        <v>0.04628471566662239</v>
+        <v>0.0006260870631720221</v>
       </c>
       <c r="T31">
-        <v>0.06446727891809437</v>
+        <v>0.001001909039252418</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N32">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O32">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P32">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q32">
-        <v>19.08336962271667</v>
+        <v>10.64828246308683</v>
       </c>
       <c r="R32">
-        <v>114.5002177363</v>
+        <v>63.889694778521</v>
       </c>
       <c r="S32">
-        <v>0.006378272380824949</v>
+        <v>0.006355806507901726</v>
       </c>
       <c r="T32">
-        <v>0.005922615542632848</v>
+        <v>0.006780675688291023</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>24.489942</v>
       </c>
       <c r="N33">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O33">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P33">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q33">
-        <v>9.7588337213</v>
+        <v>5.771536467826</v>
       </c>
       <c r="R33">
-        <v>87.82950349170001</v>
+        <v>51.94382821043401</v>
       </c>
       <c r="S33">
-        <v>0.003261714300158797</v>
+        <v>0.00344494702971719</v>
       </c>
       <c r="T33">
-        <v>0.00454305146982053</v>
+        <v>0.005512849205560233</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N34">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O34">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P34">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q34">
-        <v>8.218937384522222</v>
+        <v>4.891404295022999</v>
       </c>
       <c r="R34">
-        <v>73.97043646070001</v>
+        <v>44.02263865520699</v>
       </c>
       <c r="S34">
-        <v>0.002747031701205658</v>
+        <v>0.002919608806289431</v>
       </c>
       <c r="T34">
-        <v>0.003826180118595416</v>
+        <v>0.004672165623870472</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N35">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O35">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P35">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q35">
-        <v>12.768885369375</v>
+        <v>6.199751198030166</v>
       </c>
       <c r="R35">
-        <v>76.61331221625001</v>
+        <v>37.198507188181</v>
       </c>
       <c r="S35">
-        <v>0.004267769817152985</v>
+        <v>0.003700542237530831</v>
       </c>
       <c r="T35">
-        <v>0.003962884985507696</v>
+        <v>0.003947913888241254</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N36">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O36">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P36">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q36">
-        <v>12.91220660801111</v>
+        <v>4.087627837315111</v>
       </c>
       <c r="R36">
-        <v>116.2098594721</v>
+        <v>36.788650535836</v>
       </c>
       <c r="S36">
-        <v>0.004315672358268689</v>
+        <v>0.002439846209973307</v>
       </c>
       <c r="T36">
-        <v>0.006011048131818859</v>
+        <v>0.003904415401546739</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N37">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O37">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P37">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q37">
-        <v>8.702452146561111</v>
+        <v>4.100670346564333</v>
       </c>
       <c r="R37">
-        <v>78.32206931905</v>
+        <v>36.906033119079</v>
       </c>
       <c r="S37">
-        <v>0.002908637796638754</v>
+        <v>0.002447631095982195</v>
       </c>
       <c r="T37">
-        <v>0.004051271816342683</v>
+        <v>0.003916873329717843</v>
       </c>
     </row>
   </sheetData>
